--- a/outputs-r202/f__Atopobiaceae.xlsx
+++ b/outputs-r202/f__Atopobiaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,6 +550,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -625,6 +630,11 @@
           <t>g__UBA7741</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>g__UBA7741</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -700,6 +710,11 @@
           <t>g__UBA1367</t>
         </is>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>g__UBA1367</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -775,6 +790,11 @@
           <t>g__Olegusella</t>
         </is>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>g__Olegusella</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -850,6 +870,11 @@
           <t>g__CADAUA01</t>
         </is>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>g__CADAUA01</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -925,6 +950,11 @@
           <t>g__Olegusella</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>g__Olegusella</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1000,6 +1030,11 @@
           <t>g__RUG440</t>
         </is>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>g__RUG440</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1075,6 +1110,11 @@
           <t>g__Olsenella</t>
         </is>
       </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>g__Olsenella</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1150,6 +1190,11 @@
           <t>g__RUG721</t>
         </is>
       </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>g__RUG721</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1225,6 +1270,11 @@
           <t>g__Olsenella</t>
         </is>
       </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>g__Olsenella</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1300,6 +1350,11 @@
           <t>g__Olsenella</t>
         </is>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>g__Olsenella</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1375,6 +1430,11 @@
           <t>g__Olsenella</t>
         </is>
       </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>g__Olsenella</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1450,6 +1510,11 @@
           <t>g__Olsenella</t>
         </is>
       </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>g__Olsenella</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1525,6 +1590,11 @@
           <t>g__Olsenella</t>
         </is>
       </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>g__Olsenella</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1600,6 +1670,11 @@
           <t>g__Olsenella</t>
         </is>
       </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>g__Olsenella</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1673,6 +1748,11 @@
       <c r="W16" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>g__Olsenella(reject)</t>
         </is>
       </c>
     </row>
